--- a/Cascade.Documents/Nov/CascadeFileChangesTracker.xlsx
+++ b/Cascade.Documents/Nov/CascadeFileChangesTracker.xlsx
@@ -16,36 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NewProject</t>
   </si>
   <si>
-    <t>Cascade.Helpers</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
-    <t>Script3</t>
-  </si>
-  <si>
     <t>Files</t>
   </si>
   <si>
-    <t>Repositories\DataQueries.cs</t>
-  </si>
-  <si>
-    <t>Structure.cs</t>
-  </si>
-  <si>
-    <t>Area\Reports</t>
-  </si>
-  <si>
-    <t>LHSMenuPartial</t>
-  </si>
-  <si>
-    <t>WebConfig</t>
+    <t>web.config</t>
+  </si>
+  <si>
+    <t>Area/Portfolio</t>
+  </si>
+  <si>
+    <t>Area/Portfolio/Controllers/AddForm</t>
+  </si>
+  <si>
+    <t>Area/Portfolio/Views/AddForm/Index</t>
   </si>
 </sst>
 </file>
@@ -393,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,41 +401,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
